--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\mobileFramework\SampleFramework\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15435" windowHeight="4395"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M12"/>
 </workbook>
 </file>
 
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,7 +396,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
